--- a/Lab VMs.xlsx
+++ b/Lab VMs.xlsx
@@ -12,162 +12,201 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="145">
-  <si>
-    <t>Server1</t>
-  </si>
-  <si>
-    <t>Server2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="158">
   <si>
     <t>Student Name</t>
   </si>
   <si>
-    <t>54.183.183.99</t>
+    <t>52.8.252.54,</t>
   </si>
   <si>
-    <t>50.18.244.126</t>
+    <t>54.219.168.165,</t>
   </si>
   <si>
-    <t>Student1</t>
+    <t>Gandhi</t>
   </si>
   <si>
-    <t>18.144.2.228</t>
+    <t>Goutam</t>
   </si>
   <si>
-    <t>13.57.207.103</t>
+    <t>13.57.246.171,</t>
   </si>
   <si>
-    <t>Student2</t>
+    <t>13.52.216.211,</t>
   </si>
   <si>
-    <t>54.176.25.12</t>
+    <t>Garikpaty</t>
   </si>
   <si>
-    <t>54.215.42.250</t>
+    <t>Chaitanya</t>
   </si>
   <si>
-    <t>Student3</t>
+    <t>52.53.149.117,</t>
   </si>
   <si>
-    <t>184.169.186.241</t>
+    <t>54.153.89.44,</t>
   </si>
   <si>
-    <t>54.183.90.15</t>
+    <t>Gastolomendo</t>
   </si>
   <si>
-    <t>Student4</t>
+    <t>Dennis</t>
   </si>
   <si>
-    <t>54.151.118.207</t>
+    <t>13.57.17.225,</t>
   </si>
   <si>
-    <t>52.53.166.35</t>
+    <t>54.153.65.4,</t>
   </si>
   <si>
-    <t>Student5</t>
+    <t>Girkar</t>
   </si>
   <si>
-    <t>3.101.43.157</t>
+    <t>Satyawan</t>
   </si>
   <si>
-    <t>54.153.54.111</t>
+    <t>204.236.137.78,</t>
   </si>
   <si>
-    <t>Student6</t>
+    <t>3.101.41.60,</t>
   </si>
   <si>
-    <t>54.153.125.144</t>
+    <t>Kuramboina</t>
   </si>
   <si>
-    <t>13.57.13.76</t>
+    <t>Purnachandar</t>
   </si>
   <si>
-    <t>Student7</t>
+    <t>54.183.252.102,</t>
   </si>
   <si>
-    <t>54.153.90.35</t>
+    <t>13.52.99.25,</t>
   </si>
   <si>
-    <t>54.183.134.162</t>
+    <t>Lonstrup</t>
   </si>
   <si>
-    <t>Student8</t>
+    <t>Peter</t>
   </si>
   <si>
-    <t>54.176.52.185</t>
+    <t>54.215.112.246,</t>
   </si>
   <si>
-    <t>54.151.8.82</t>
+    <t>54.183.84.40,</t>
   </si>
   <si>
-    <t>Student9</t>
+    <t>Pande</t>
+  </si>
+  <si>
+    <t>Vinod</t>
+  </si>
+  <si>
+    <t>50.18.225.241,</t>
+  </si>
+  <si>
+    <t>13.57.34.156,</t>
+  </si>
+  <si>
+    <t>Peirce</t>
+  </si>
+  <si>
+    <t>Bryan</t>
+  </si>
+  <si>
+    <t>54.215.242.33,</t>
+  </si>
+  <si>
+    <t>52.53.249.78,</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Debra</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>54.176.117.243</t>
+    <t>18.144.79.148,</t>
   </si>
   <si>
-    <t>54.241.146.239</t>
+    <t>3.101.144.94,</t>
   </si>
   <si>
-    <t>Student10</t>
+    <t>Saeed</t>
   </si>
   <si>
-    <t>54.219.56.142</t>
+    <t>Saad</t>
   </si>
   <si>
-    <t>54.177.173.119</t>
+    <t>18.144.162.164,</t>
   </si>
   <si>
-    <t>Student11</t>
+    <t>54.176.127.204,</t>
   </si>
   <si>
-    <t>54.153.0.117</t>
+    <t>Sakalla</t>
   </si>
   <si>
-    <t>3.101.16.8</t>
+    <t>Hani</t>
   </si>
   <si>
-    <t>Student12</t>
+    <t>13.52.239.176,</t>
   </si>
   <si>
-    <t>54.219.137.253</t>
+    <t>54.177.165.169,</t>
   </si>
   <si>
-    <t>13.52.181.161</t>
+    <t>Segal</t>
   </si>
   <si>
-    <t>Student13</t>
+    <t>Brad</t>
   </si>
   <si>
-    <t>13.57.213.190</t>
+    <t>54.177.147.227,</t>
   </si>
   <si>
-    <t>54.219.170.219</t>
+    <t>54.153.49.191,</t>
   </si>
   <si>
-    <t>Student14</t>
+    <t>Sharma</t>
   </si>
   <si>
-    <t>54.153.71.59</t>
+    <t>Ashutosh</t>
   </si>
   <si>
-    <t>13.52.220.65</t>
+    <t>54.219.23.237,</t>
   </si>
   <si>
-    <t>Student15</t>
+    <t>18.144.90.149,</t>
+  </si>
+  <si>
+    <t>Wickert</t>
+  </si>
+  <si>
+    <t>Lon</t>
+  </si>
+  <si>
+    <t>54.151.125.244,</t>
+  </si>
+  <si>
+    <t>54.176.169.168,</t>
+  </si>
+  <si>
+    <t>Ye</t>
+  </si>
+  <si>
+    <t>Hong</t>
   </si>
   <si>
     <t>54.151.31.152</t>
   </si>
   <si>
-    <t>54.183.223.254</t>
+    <t>13.52.216.93</t>
   </si>
   <si>
-    <t>54.183.244.178</t>
+    <t>52.53.158.171</t>
   </si>
   <si>
     <t>Instructor</t>
@@ -650,26 +689,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.0"/>
-    <col customWidth="1" min="2" max="2" width="38.57"/>
-    <col customWidth="1" min="3" max="3" width="23.43"/>
+    <col customWidth="1" min="1" max="1" width="20.13"/>
+    <col customWidth="1" min="2" max="2" width="33.75"/>
+    <col customWidth="1" min="3" max="3" width="20.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="54.0" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -690,26 +726,31 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -733,10 +774,12 @@
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -755,15 +798,17 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -782,15 +827,17 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
+      <c r="C6" t="s">
+        <v>19</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -809,15 +856,17 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
+      <c r="C7" t="s">
+        <v>23</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -836,15 +885,17 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
+      <c r="C8" t="s">
+        <v>27</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -863,15 +914,17 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
+      <c r="C9" t="s">
+        <v>31</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -890,19 +943,21 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
+      <c r="C10" t="s">
+        <v>35</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -919,15 +974,17 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
+      <c r="C11" t="s">
+        <v>40</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -946,15 +1003,17 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>36</v>
+      <c r="C12" t="s">
+        <v>44</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -973,15 +1032,17 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>39</v>
+      <c r="C13" t="s">
+        <v>48</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1000,15 +1061,17 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>42</v>
+      <c r="C14" t="s">
+        <v>52</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1027,15 +1090,17 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>45</v>
+      <c r="C15" t="s">
+        <v>56</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1054,15 +1119,17 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>48</v>
+      <c r="C16" t="s">
+        <v>60</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1153,10 +1220,10 @@
     </row>
     <row r="21" hidden="1">
       <c r="A21" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1196,13 +1263,13 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -21598,6 +21665,9 @@
       <c r="S994" s="2"/>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -21613,46 +21683,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.0"/>
-    <col customWidth="1" min="2" max="2" width="22.57"/>
-    <col customWidth="1" min="3" max="3" width="18.86"/>
-    <col customWidth="1" min="4" max="4" width="23.29"/>
-    <col customWidth="1" min="9" max="9" width="19.0"/>
-    <col customWidth="1" min="10" max="10" width="23.43"/>
+    <col customWidth="1" min="1" max="1" width="20.13"/>
+    <col customWidth="1" min="2" max="2" width="19.75"/>
+    <col customWidth="1" min="3" max="3" width="16.5"/>
+    <col customWidth="1" min="4" max="4" width="20.38"/>
+    <col customWidth="1" min="9" max="9" width="16.63"/>
+    <col customWidth="1" min="10" max="10" width="20.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="54.0" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -21673,16 +21743,16 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="b">
         <v>1</v>
@@ -21721,16 +21791,16 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="b">
         <v>1</v>
@@ -21769,16 +21839,16 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E4" s="1" t="b">
         <v>1</v>
@@ -21817,16 +21887,16 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="b">
         <v>0</v>
@@ -21865,16 +21935,16 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E6" s="1" t="b">
         <v>0</v>
@@ -21913,16 +21983,16 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E7" s="1" t="b">
         <v>1</v>
@@ -21961,16 +22031,16 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E8" s="1" t="b">
         <v>0</v>
@@ -22009,16 +22079,16 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E9" s="1" t="b">
         <v>0</v>
@@ -22057,16 +22127,16 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1" t="b">
         <v>0</v>
@@ -22105,16 +22175,16 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E11" s="1" t="b">
         <v>0</v>
@@ -22138,7 +22208,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -22155,16 +22225,16 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E12" s="1" t="b">
         <v>0</v>
@@ -22203,16 +22273,16 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E13" s="1" t="b">
         <v>1</v>
@@ -22251,16 +22321,16 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E14" s="1" t="b">
         <v>1</v>
@@ -22299,16 +22369,16 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E15" s="1" t="b">
         <v>1</v>
@@ -22347,16 +22417,16 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E16" s="1" t="b">
         <v>1</v>
@@ -22395,16 +22465,16 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E17" s="1" t="b">
         <v>1</v>
@@ -22443,16 +22513,16 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E18" s="1" t="b">
         <v>1</v>
@@ -22491,16 +22561,16 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E19" s="1" t="b">
         <v>1</v>
@@ -22539,16 +22609,16 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E20" s="1" t="b">
         <v>1</v>
@@ -22587,16 +22657,16 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E21" s="1" t="b">
         <v>1</v>
@@ -22635,16 +22705,16 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E22" s="1" t="b">
         <v>0</v>
